--- a/datasets/2020빅콘테스트_데이터분석분야_퓨처스리그_데이터정의서.xlsx
+++ b/datasets/2020빅콘테스트_데이터분석분야_퓨처스리그_데이터정의서.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20364"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\2020_BigContest\datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E70EF6A-EEF2-4C23-AF29-C0F4B0E911FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72" yWindow="-252" windowWidth="18708" windowHeight="12576" tabRatio="629"/>
+    <workbookView xWindow="75" yWindow="-255" windowWidth="18705" windowHeight="12570" tabRatio="629" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.팀" sheetId="16" r:id="rId1"/>
@@ -531,7 +537,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -657,13 +663,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준_Sheet1" xfId="1"/>
+    <cellStyle name="표준_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -712,7 +721,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -745,9 +754,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -780,6 +806,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -955,17 +998,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.59765625" style="1"/>
+    <col min="1" max="16384" width="9.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4">
         <v>2020</v>
       </c>
@@ -976,7 +1021,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -996,7 +1041,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
@@ -1016,7 +1061,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
@@ -1036,7 +1081,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>98</v>
       </c>
@@ -1056,7 +1101,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>99</v>
       </c>
@@ -1076,7 +1121,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>91</v>
       </c>
@@ -1096,7 +1141,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>100</v>
       </c>
@@ -1116,7 +1161,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>93</v>
       </c>
@@ -1136,7 +1181,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>101</v>
       </c>
@@ -1156,7 +1201,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>95</v>
       </c>
@@ -1176,7 +1221,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>102</v>
       </c>
@@ -1196,7 +1241,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>2017</v>
       </c>
@@ -1204,7 +1249,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1218,7 +1263,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>87</v>
       </c>
@@ -1232,7 +1277,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>97</v>
       </c>
@@ -1246,7 +1291,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>103</v>
       </c>
@@ -1260,7 +1305,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>99</v>
       </c>
@@ -1274,7 +1319,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>91</v>
       </c>
@@ -1288,7 +1333,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>100</v>
       </c>
@@ -1302,7 +1347,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>93</v>
       </c>
@@ -1316,7 +1361,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -1330,7 +1375,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>95</v>
       </c>
@@ -1344,7 +1389,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
@@ -1366,18 +1411,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.59765625" style="1"/>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -1400,7 +1445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1423,7 +1468,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -1446,7 +1491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -1469,7 +1514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>116</v>
       </c>
@@ -1477,7 +1522,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>117</v>
       </c>
@@ -1485,7 +1530,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>118</v>
       </c>
@@ -1493,22 +1538,22 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>122</v>
       </c>
@@ -1521,19 +1566,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.59765625" style="1"/>
+    <col min="1" max="16384" width="9.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>132</v>
       </c>
@@ -1556,7 +1601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2020</v>
       </c>
@@ -1579,7 +1624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
@@ -1602,7 +1647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
@@ -1625,7 +1670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2020</v>
       </c>
@@ -1648,22 +1693,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E8" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E9" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E10" s="5" t="s">
         <v>115</v>
       </c>
@@ -1676,23 +1721,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Y1" activeCellId="5" sqref="AD1:AE4 AC1:AE4 AB1:AE4 AA1:AE4 Z1:AE4 Y1:AE4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="1" customWidth="1"/>
-    <col min="2" max="5" width="9.59765625" style="1"/>
-    <col min="6" max="31" width="6.59765625" style="1" customWidth="1"/>
-    <col min="32" max="34" width="12.59765625" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="9.59765625" style="1"/>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="9.625" style="1"/>
+    <col min="6" max="31" width="6.625" style="1" customWidth="1"/>
+    <col min="32" max="34" width="12.625" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -1796,7 +1841,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1891,7 +1936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1986,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="F5" s="5" t="s">
         <v>125</v>
       </c>
@@ -1994,7 +2039,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="F6" s="5" t="s">
         <v>126</v>
       </c>
@@ -2002,12 +2047,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="H7" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="H8" s="5" t="s">
         <v>130</v>
       </c>
@@ -2020,23 +2065,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="1" customWidth="1"/>
-    <col min="2" max="5" width="9.59765625" style="1"/>
-    <col min="6" max="25" width="6.59765625" style="1" customWidth="1"/>
-    <col min="26" max="28" width="8.59765625" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.59765625" style="1"/>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="9.625" style="1"/>
+    <col min="6" max="25" width="6.625" style="1" customWidth="1"/>
+    <col min="26" max="28" width="8.625" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -2122,7 +2167,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -2199,7 +2244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -2284,25 +2329,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AL8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="1" customWidth="1"/>
-    <col min="2" max="5" width="9.59765625" style="1"/>
-    <col min="6" max="6" width="6.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="1"/>
-    <col min="8" max="35" width="6.59765625" style="1" customWidth="1"/>
-    <col min="36" max="38" width="12.59765625" style="1" customWidth="1"/>
-    <col min="39" max="16384" width="9.59765625" style="1"/>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="9.625" style="1"/>
+    <col min="6" max="6" width="6.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1"/>
+    <col min="8" max="35" width="6.625" style="1" customWidth="1"/>
+    <col min="36" max="38" width="12.625" style="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -2418,7 +2463,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -2525,7 +2570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -2632,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2739,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -2846,10 +2891,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:38" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="H8" s="5"/>
     </row>
   </sheetData>
@@ -2860,25 +2905,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L18:L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="1" customWidth="1"/>
-    <col min="2" max="5" width="9.59765625" style="1"/>
-    <col min="6" max="6" width="6.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="1"/>
-    <col min="8" max="28" width="6.59765625" style="1" customWidth="1"/>
-    <col min="29" max="31" width="8.59765625" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.59765625" style="1"/>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="9.625" style="1"/>
+    <col min="6" max="6" width="6.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1"/>
+    <col min="8" max="28" width="6.625" style="1" customWidth="1"/>
+    <col min="29" max="31" width="8.625" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -2973,7 +3018,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -3059,7 +3104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -3145,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -3231,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -3317,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -3411,17 +3456,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.59765625" style="1"/>
+    <col min="1" max="16384" width="9.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -3435,7 +3480,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>20200715</v>
       </c>
@@ -3449,7 +3494,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>20200715</v>
       </c>
@@ -3463,7 +3508,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>20200715</v>
       </c>
@@ -3477,7 +3522,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>20200715</v>
       </c>
@@ -3491,7 +3536,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>20200715</v>
       </c>
@@ -3505,7 +3550,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>20200715</v>
       </c>
